--- a/Op_Text.xlsx
+++ b/Op_Text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\StoreMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\study\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6C29C-05D9-417C-8056-8248D2C0BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF6645-8CF5-443D-BFCD-83178D58021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="570" windowWidth="8620" windowHeight="10230" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B9B151F-247F-437D-879E-F1C04A1A7356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="234">
   <si>
     <t>Optional</t>
   </si>
@@ -711,6 +733,36 @@
   </si>
   <si>
     <t>Thị Trấn Cần Giuộc Huyện Cần Giuộc Tỉnh Long An</t>
+  </si>
+  <si>
+    <t>nguyễn văn đẹp</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>tân phước</t>
+  </si>
+  <si>
+    <t>khu vực</t>
+  </si>
+  <si>
+    <t>mai thị non</t>
+  </si>
+  <si>
+    <t>so 8</t>
+  </si>
+  <si>
+    <t>số 2</t>
+  </si>
+  <si>
+    <t>26 tháng 3</t>
+  </si>
+  <si>
+    <t>26/3</t>
+  </si>
+  <si>
+    <t>tân khánh</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDFFBE1-422E-4732-AF0C-7DF34C187B8B}">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2256,6 +2308,1184 @@
         <v>217</v>
       </c>
     </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="str" cm="1">
+        <f t="array" ref="A225:A447">LOWER(A2:A224)</f>
+        <v>(dưới dốc cầ huyện cầu kè tỉnh trà vinh</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="str">
+        <v>âp</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="str">
+        <v>chợ</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="str">
+        <v>đ.</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="str">
+        <v>dt</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="str">
+        <v>duong</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="str">
+        <v xml:space="preserve">đường </v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="str">
+        <v>hem</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="str">
+        <v>hẻm</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="str">
+        <v>hẻm</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="str">
+        <v>hl</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="str">
+        <v>huyện</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="str">
+        <v>khu phố</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="str">
+        <v>kp</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="str">
+        <v>kp</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="str">
+        <v>phường</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="str">
+        <v>ql</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="str">
+        <v>ql</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="str">
+        <v>quoc lo</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="str">
+        <v>số</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="str">
+        <v>thị xã</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="str">
+        <v>tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="str">
+        <v>tỉnh</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="str">
+        <v>tl</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="str">
+        <v>tổ</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="str">
+        <v>xã</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" t="str">
+        <v xml:space="preserve">cầu </v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" t="str">
+        <v>đuong</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" t="str">
+        <v>khu dân cư</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" t="str">
+        <v>khom</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" t="str">
+        <v xml:space="preserve">quốc lộ </v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" t="str">
+        <v>quán</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" t="str">
+        <v>cách</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" t="str">
+        <v>500m vôcửakhẩu</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="str">
+        <v>chợ</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="str">
+        <v>ubnd</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="str">
+        <v>trụ điện</v>
+      </c>
+      <c r="B290" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="str">
+        <v>hương lộ</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="str">
+        <v xml:space="preserve">đ/diện </v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="str">
+        <v>ub</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="str">
+        <v>cách</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="str">
+        <v>200m</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="str">
+        <v>100m</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="str">
+        <v>50m</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="str">
+        <v>ấp</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="str">
+        <v>số</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="str">
+        <v>phường</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="str">
+        <v>-&gt; 300m</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="str">
+        <v>hl</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="str">
+        <v>tỉnh</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" t="str">
+        <v>đường tỉnh</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" t="str">
+        <v>đường tỉnh lộ</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" t="str">
+        <v>ủy ban</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" t="str">
+        <v>trường cấp 2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="str">
+        <v>kdc</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="str">
+        <v>thcs</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="str">
+        <v>thpt</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="str">
+        <v>đối diện</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="str">
+        <v>kênh</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" t="str">
+        <v>khom</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" t="str">
+        <v>khóm</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" t="str">
+        <v>khu dân cư</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" t="str">
+        <v>kinh</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" t="str">
+        <v>kế bên shop</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="str">
+        <v>shop</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" t="str">
+        <v xml:space="preserve">tp </v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" t="str">
+        <v>cây xăng</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" t="str">
+        <v>từ</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" t="str">
+        <v>tx</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" t="str">
+        <v xml:space="preserve">xã </v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" t="str">
+        <v>nằm đầu</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" t="str">
+        <v>gần</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" t="str">
+        <v xml:space="preserve">bvdk </v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="str">
+        <v xml:space="preserve">đầu đường  2 khu </v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" t="str">
+        <v xml:space="preserve">qua cầu </v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" t="str">
+        <v>cầu</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" t="str">
+        <v>bên trái</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" t="str">
+        <v>bên phải</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" t="str">
+        <v>quacau</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" t="str">
+        <v>nằm trên</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" t="str">
+        <v>300m</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" t="str">
+        <v>400m</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" t="str">
+        <v xml:space="preserve">t. </v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" t="str">
+        <v xml:space="preserve">đ/d nhnn </v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" t="str">
+        <v xml:space="preserve">bxe  </v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" t="str">
+        <v>bến xe</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" t="str">
+        <v>nhà nghỉ</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" t="str">
+        <v xml:space="preserve">đi </v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" t="str">
+        <v>trụ điện</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="str">
+        <v>trường cấp 2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" t="str">
+        <v>trường c 2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" t="str">
+        <v xml:space="preserve">trường </v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" t="str">
+        <v>phía sau</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" t="str">
+        <v>đôi diện</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" t="str">
+        <v>nằm trên 53,  cầu300m</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" t="str">
+        <v>ngay tượng đà</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" t="str">
+        <v>ngay</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" t="str">
+        <v>tượng đà</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" t="str">
+        <v>trường</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" t="str">
+        <v>khu di tíchnhà100cột</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" t="str">
+        <v xml:space="preserve"> nước mặn</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" t="str">
+        <v xml:space="preserve">dưới dốc </v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" t="str">
+        <v>trường thọc</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" t="str">
+        <v>lộ cũ</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" t="str">
+        <v>kế</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" t="str">
+        <v>đ/d khu dân cư</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" t="str">
+        <v>ủy tín dụng</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="str">
+        <v>chốt đèn đỏ</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="str">
+        <v>ủb</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="str">
+        <v xml:space="preserve">(qua </v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="str">
+        <v>5m</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" t="str">
+        <v>đ nguyễn văn đẹp</v>
+      </c>
+      <c r="B373" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" t="str">
+        <v>đ tân phước</v>
+      </c>
+      <c r="B374" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" t="str">
+        <v>đ 9</v>
+      </c>
+      <c r="B375">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" t="str">
+        <v>đ d8</v>
+      </c>
+      <c r="B376" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" t="str">
+        <v>c 2 c.</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" t="str">
+        <v>c.</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" t="str">
+        <v>đ/d</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" t="str">
+        <v>gần trường mgiao</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" t="str">
+        <v>mgiao</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" t="str">
+        <v>cũ</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" t="str">
+        <v xml:space="preserve">x. </v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" t="str">
+        <v>t.trấn</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" t="str">
+        <v>kcn</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" t="str">
+        <v xml:space="preserve">  lộ 883</v>
+      </c>
+      <c r="B386" s="2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" t="str">
+        <v xml:space="preserve"> lo  1</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" t="str">
+        <v xml:space="preserve"> lộ 17/1</v>
+      </c>
+      <c r="B389" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="str">
+        <v>30 tháng 4</v>
+      </c>
+      <c r="B390" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" t="str">
+        <v>n.v</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" t="str">
+        <v>cây xăng</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" t="str">
+        <v>cột đèn</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" t="str">
+        <v>cột điện</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" t="str">
+        <v>cho</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" t="str">
+        <v>chùa</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" t="str">
+        <v xml:space="preserve">cột </v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" t="str">
+        <v>đ số</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" t="str">
+        <v>dd</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" t="str">
+        <v>đh</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" t="str">
+        <v>đl</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" t="str">
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" t="str">
+        <v>đối điện ca</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" t="str">
+        <v>đối điện</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" t="str">
+        <v>đt</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" t="str">
+        <v>đương</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" t="str">
+        <v>đừơng</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" t="str">
+        <v>tđc</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B413" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B414" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B415" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" t="str">
+        <v>quầy số</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" t="str">
+        <v>quốc lô</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" t="str">
+        <v>quốc lộ</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" t="str">
+        <v>cổng chào</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" t="str">
+        <v>p tân khánh</v>
+      </c>
+      <c r="B420" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" t="str">
+        <v>quan 100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" t="str">
+        <v>trên</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" t="str">
+        <v>i mai thị non</v>
+      </c>
+      <c r="B423" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" t="str">
+        <v>đường  9 &amp;  5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" t="str">
+        <v>kcn</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" t="str">
+        <v>kd cư</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" t="str">
+        <v>khu chung cư</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" t="str">
+        <v>chung cư</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" t="str">
+        <v>b.</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" t="str">
+        <v>duong</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" t="str">
+        <v>duong so 8</v>
+      </c>
+      <c r="B432" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" t="str">
+        <v>duong số 2</v>
+      </c>
+      <c r="B433" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" t="str">
+        <v>đại lộ</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" t="str">
+        <v>19 tháng 5</v>
+      </c>
+      <c r="B435" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" t="str">
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" t="str">
+        <v>đường</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" t="str">
+        <v>đ.</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" t="str">
+        <v>kiot</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" t="str">
+        <v>thị trấn cần giuộc huyện cần giuộc tỉnh long an</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" t="str">
+        <v>hòa khánh nam</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" t="str">
+        <v>thuận thành</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" t="str">
+        <v>phước lâm</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" t="str">
+        <v>xã tầm vu</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" t="str">
+        <v>nhị thành</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" t="str">
+        <v>nhơn thạnh trung</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>231</v>
+      </c>
+      <c r="B448" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
